--- a/po_analysis_by_asin/B0BZQ1PWGJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZQ1PWGJ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,209 +452,409 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45299</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45313</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45327</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>750</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45355</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>620</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45362</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45369</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45397</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45404</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45439</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45460</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>220</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45467</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45481</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45488</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45495</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45502</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45509</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45516</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45523</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>320</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45530</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>360</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45537</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>360</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45551</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>280</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45558</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45565</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45572</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45579</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45600</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B27" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B52" t="n">
         <v>20</v>
       </c>
     </row>
@@ -669,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,89 +891,153 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>420</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>750</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>730</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1020</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>780</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>660</v>
+        <v>750</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45597</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B20" t="n">
         <v>20</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BZQ1PWGJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZQ1PWGJ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -885,7 +886,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1039,6 +1040,873 @@
       </c>
       <c r="B20" t="n">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>45</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-135.459919342918</v>
+      </c>
+      <c r="D2" t="n">
+        <v>231.8710996451092</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>47</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-125.9214927052753</v>
+      </c>
+      <c r="D3" t="n">
+        <v>221.6824527897937</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>52</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-129.5316772482637</v>
+      </c>
+      <c r="D4" t="n">
+        <v>240.3259582548227</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>56</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-127.8338262798837</v>
+      </c>
+      <c r="D5" t="n">
+        <v>240.5259328454014</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>61</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-134.311135118172</v>
+      </c>
+      <c r="D6" t="n">
+        <v>241.8977426201488</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>63</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-121.268380924607</v>
+      </c>
+      <c r="D7" t="n">
+        <v>239.7467713340835</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>65</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-122.6061690879</v>
+      </c>
+      <c r="D8" t="n">
+        <v>237.6025393631747</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>70</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-114.3557824932196</v>
+      </c>
+      <c r="D9" t="n">
+        <v>257.2798687601219</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>72</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-101.2968504248589</v>
+      </c>
+      <c r="D10" t="n">
+        <v>258.3974195730356</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>74</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-127.1412877056628</v>
+      </c>
+      <c r="D11" t="n">
+        <v>268.0391426632834</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>77</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-126.2751649772667</v>
+      </c>
+      <c r="D12" t="n">
+        <v>250.3018014095274</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>79</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-116.1110010025477</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.8287405462692</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>81</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-100.846505954682</v>
+      </c>
+      <c r="D14" t="n">
+        <v>253.5430986377548</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>90</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-118.6422824123685</v>
+      </c>
+      <c r="D15" t="n">
+        <v>275.6864566502211</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>95</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-85.89644026904887</v>
+      </c>
+      <c r="D16" t="n">
+        <v>284.1068497560404</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>97</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-85.14811629552784</v>
+      </c>
+      <c r="D17" t="n">
+        <v>277.9437276270332</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>102</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-82.70847603334788</v>
+      </c>
+      <c r="D18" t="n">
+        <v>273.0713899038622</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>104</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-79.47259651133655</v>
+      </c>
+      <c r="D19" t="n">
+        <v>282.7283174725093</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>106</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-77.63043040066152</v>
+      </c>
+      <c r="D20" t="n">
+        <v>291.1155387786626</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>109</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-81.62847886840376</v>
+      </c>
+      <c r="D21" t="n">
+        <v>287.0160914274454</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>111</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-62.38726841297921</v>
+      </c>
+      <c r="D22" t="n">
+        <v>275.7667627368092</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>113</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-87.69518878495028</v>
+      </c>
+      <c r="D23" t="n">
+        <v>296.1133490654085</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>116</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-63.78388459256309</v>
+      </c>
+      <c r="D24" t="n">
+        <v>296.2153470113641</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>118</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-43.31493122723438</v>
+      </c>
+      <c r="D25" t="n">
+        <v>307.7192532528065</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>122</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-50.1457913452662</v>
+      </c>
+      <c r="D26" t="n">
+        <v>302.7507561763107</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>136</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-64.49402312040519</v>
+      </c>
+      <c r="D27" t="n">
+        <v>319.8817105694295</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>141</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-55.6790782136946</v>
+      </c>
+      <c r="D28" t="n">
+        <v>324.5702847539085</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>145</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-36.69252894755095</v>
+      </c>
+      <c r="D29" t="n">
+        <v>337.8261652636446</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>155</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-17.46204079211316</v>
+      </c>
+      <c r="D30" t="n">
+        <v>332.8422782904261</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>157</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-29.37424080809727</v>
+      </c>
+      <c r="D31" t="n">
+        <v>340.3670621113837</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>159</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-27.88555923886067</v>
+      </c>
+      <c r="D32" t="n">
+        <v>358.5358125451778</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>168</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-20.21478101579965</v>
+      </c>
+      <c r="D33" t="n">
+        <v>352.2751035483438</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>171</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-7.269797726477624</v>
+      </c>
+      <c r="D34" t="n">
+        <v>359.7910509719134</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>182</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-11.69845039633446</v>
+      </c>
+      <c r="D35" t="n">
+        <v>351.1005866498431</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>189</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4.516801204204577</v>
+      </c>
+      <c r="D36" t="n">
+        <v>373.1531852335118</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>191</v>
+      </c>
+      <c r="C37" t="n">
+        <v>10.4021572689153</v>
+      </c>
+      <c r="D37" t="n">
+        <v>394.0609497390744</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>196</v>
+      </c>
+      <c r="C38" t="n">
+        <v>8.895091648602632</v>
+      </c>
+      <c r="D38" t="n">
+        <v>391.6362146242161</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>198</v>
+      </c>
+      <c r="C39" t="n">
+        <v>13.8668573788341</v>
+      </c>
+      <c r="D39" t="n">
+        <v>372.1774957150297</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>200</v>
+      </c>
+      <c r="C40" t="n">
+        <v>21.75983861629605</v>
+      </c>
+      <c r="D40" t="n">
+        <v>381.870923583422</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>203</v>
+      </c>
+      <c r="C41" t="n">
+        <v>17.23647147462314</v>
+      </c>
+      <c r="D41" t="n">
+        <v>391.9807246602838</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>205</v>
+      </c>
+      <c r="C42" t="n">
+        <v>21.12199312126419</v>
+      </c>
+      <c r="D42" t="n">
+        <v>380.1202825251706</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>207</v>
+      </c>
+      <c r="C43" t="n">
+        <v>37.11113904911878</v>
+      </c>
+      <c r="D43" t="n">
+        <v>399.1320433573617</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>209</v>
+      </c>
+      <c r="C44" t="n">
+        <v>32.1826062010712</v>
+      </c>
+      <c r="D44" t="n">
+        <v>403.4802784587497</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>212</v>
+      </c>
+      <c r="C45" t="n">
+        <v>27.51218060227043</v>
+      </c>
+      <c r="D45" t="n">
+        <v>407.0433640317528</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>214</v>
+      </c>
+      <c r="C46" t="n">
+        <v>21.17189894597619</v>
+      </c>
+      <c r="D46" t="n">
+        <v>410.5244254475149</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>219</v>
+      </c>
+      <c r="C47" t="n">
+        <v>35.08338831309972</v>
+      </c>
+      <c r="D47" t="n">
+        <v>390.9804223000712</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>221</v>
+      </c>
+      <c r="C48" t="n">
+        <v>36.37290701904812</v>
+      </c>
+      <c r="D48" t="n">
+        <v>401.2186025766567</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>223</v>
+      </c>
+      <c r="C49" t="n">
+        <v>25.16807166924611</v>
+      </c>
+      <c r="D49" t="n">
+        <v>408.4521207543486</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>225</v>
+      </c>
+      <c r="C50" t="n">
+        <v>38.94229926762693</v>
+      </c>
+      <c r="D50" t="n">
+        <v>409.7753329397426</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>228</v>
+      </c>
+      <c r="C51" t="n">
+        <v>37.839983753106</v>
+      </c>
+      <c r="D51" t="n">
+        <v>408.6371156899102</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>235</v>
+      </c>
+      <c r="C52" t="n">
+        <v>51.81784183557672</v>
+      </c>
+      <c r="D52" t="n">
+        <v>419.46053010466</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>237</v>
+      </c>
+      <c r="C53" t="n">
+        <v>57.06987161347275</v>
+      </c>
+      <c r="D53" t="n">
+        <v>421.6788362494598</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>239</v>
+      </c>
+      <c r="C54" t="n">
+        <v>68.79096578692035</v>
+      </c>
+      <c r="D54" t="n">
+        <v>419.3427462058393</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>241</v>
+      </c>
+      <c r="C55" t="n">
+        <v>70.98936151175647</v>
+      </c>
+      <c r="D55" t="n">
+        <v>421.617934822798</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>244</v>
+      </c>
+      <c r="C56" t="n">
+        <v>55.36654740858081</v>
+      </c>
+      <c r="D56" t="n">
+        <v>435.3051513278211</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>246</v>
+      </c>
+      <c r="C57" t="n">
+        <v>54.05602942797178</v>
+      </c>
+      <c r="D57" t="n">
+        <v>423.5533209189615</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>248</v>
+      </c>
+      <c r="C58" t="n">
+        <v>64.32345041327392</v>
+      </c>
+      <c r="D58" t="n">
+        <v>430.777103711612</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>251</v>
+      </c>
+      <c r="C59" t="n">
+        <v>71.51871812745064</v>
+      </c>
+      <c r="D59" t="n">
+        <v>434.3208700643095</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>253</v>
+      </c>
+      <c r="C60" t="n">
+        <v>83.18768443234821</v>
+      </c>
+      <c r="D60" t="n">
+        <v>444.3784683710468</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BZQ1PWGJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZQ1PWGJ_po_data.xlsx
@@ -1053,7 +1053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,16 +1072,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1090,12 +1080,6 @@
       <c r="B2" t="n">
         <v>45</v>
       </c>
-      <c r="C2" t="n">
-        <v>-135.459919342918</v>
-      </c>
-      <c r="D2" t="n">
-        <v>231.8710996451092</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1104,12 +1088,6 @@
       <c r="B3" t="n">
         <v>47</v>
       </c>
-      <c r="C3" t="n">
-        <v>-125.9214927052753</v>
-      </c>
-      <c r="D3" t="n">
-        <v>221.6824527897937</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1118,12 +1096,6 @@
       <c r="B4" t="n">
         <v>52</v>
       </c>
-      <c r="C4" t="n">
-        <v>-129.5316772482637</v>
-      </c>
-      <c r="D4" t="n">
-        <v>240.3259582548227</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1132,12 +1104,6 @@
       <c r="B5" t="n">
         <v>56</v>
       </c>
-      <c r="C5" t="n">
-        <v>-127.8338262798837</v>
-      </c>
-      <c r="D5" t="n">
-        <v>240.5259328454014</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1146,12 +1112,6 @@
       <c r="B6" t="n">
         <v>61</v>
       </c>
-      <c r="C6" t="n">
-        <v>-134.311135118172</v>
-      </c>
-      <c r="D6" t="n">
-        <v>241.8977426201488</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1160,12 +1120,6 @@
       <c r="B7" t="n">
         <v>63</v>
       </c>
-      <c r="C7" t="n">
-        <v>-121.268380924607</v>
-      </c>
-      <c r="D7" t="n">
-        <v>239.7467713340835</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1174,12 +1128,6 @@
       <c r="B8" t="n">
         <v>65</v>
       </c>
-      <c r="C8" t="n">
-        <v>-122.6061690879</v>
-      </c>
-      <c r="D8" t="n">
-        <v>237.6025393631747</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1188,12 +1136,6 @@
       <c r="B9" t="n">
         <v>70</v>
       </c>
-      <c r="C9" t="n">
-        <v>-114.3557824932196</v>
-      </c>
-      <c r="D9" t="n">
-        <v>257.2798687601219</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1202,12 +1144,6 @@
       <c r="B10" t="n">
         <v>72</v>
       </c>
-      <c r="C10" t="n">
-        <v>-101.2968504248589</v>
-      </c>
-      <c r="D10" t="n">
-        <v>258.3974195730356</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1216,12 +1152,6 @@
       <c r="B11" t="n">
         <v>74</v>
       </c>
-      <c r="C11" t="n">
-        <v>-127.1412877056628</v>
-      </c>
-      <c r="D11" t="n">
-        <v>268.0391426632834</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1230,12 +1160,6 @@
       <c r="B12" t="n">
         <v>77</v>
       </c>
-      <c r="C12" t="n">
-        <v>-126.2751649772667</v>
-      </c>
-      <c r="D12" t="n">
-        <v>250.3018014095274</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1244,12 +1168,6 @@
       <c r="B13" t="n">
         <v>79</v>
       </c>
-      <c r="C13" t="n">
-        <v>-116.1110010025477</v>
-      </c>
-      <c r="D13" t="n">
-        <v>242.8287405462692</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1258,12 +1176,6 @@
       <c r="B14" t="n">
         <v>81</v>
       </c>
-      <c r="C14" t="n">
-        <v>-100.846505954682</v>
-      </c>
-      <c r="D14" t="n">
-        <v>253.5430986377548</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1272,12 +1184,6 @@
       <c r="B15" t="n">
         <v>90</v>
       </c>
-      <c r="C15" t="n">
-        <v>-118.6422824123685</v>
-      </c>
-      <c r="D15" t="n">
-        <v>275.6864566502211</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1286,12 +1192,6 @@
       <c r="B16" t="n">
         <v>95</v>
       </c>
-      <c r="C16" t="n">
-        <v>-85.89644026904887</v>
-      </c>
-      <c r="D16" t="n">
-        <v>284.1068497560404</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1300,12 +1200,6 @@
       <c r="B17" t="n">
         <v>97</v>
       </c>
-      <c r="C17" t="n">
-        <v>-85.14811629552784</v>
-      </c>
-      <c r="D17" t="n">
-        <v>277.9437276270332</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1314,12 +1208,6 @@
       <c r="B18" t="n">
         <v>102</v>
       </c>
-      <c r="C18" t="n">
-        <v>-82.70847603334788</v>
-      </c>
-      <c r="D18" t="n">
-        <v>273.0713899038622</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1328,12 +1216,6 @@
       <c r="B19" t="n">
         <v>104</v>
       </c>
-      <c r="C19" t="n">
-        <v>-79.47259651133655</v>
-      </c>
-      <c r="D19" t="n">
-        <v>282.7283174725093</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1342,12 +1224,6 @@
       <c r="B20" t="n">
         <v>106</v>
       </c>
-      <c r="C20" t="n">
-        <v>-77.63043040066152</v>
-      </c>
-      <c r="D20" t="n">
-        <v>291.1155387786626</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1356,12 +1232,6 @@
       <c r="B21" t="n">
         <v>109</v>
       </c>
-      <c r="C21" t="n">
-        <v>-81.62847886840376</v>
-      </c>
-      <c r="D21" t="n">
-        <v>287.0160914274454</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1370,12 +1240,6 @@
       <c r="B22" t="n">
         <v>111</v>
       </c>
-      <c r="C22" t="n">
-        <v>-62.38726841297921</v>
-      </c>
-      <c r="D22" t="n">
-        <v>275.7667627368092</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1384,12 +1248,6 @@
       <c r="B23" t="n">
         <v>113</v>
       </c>
-      <c r="C23" t="n">
-        <v>-87.69518878495028</v>
-      </c>
-      <c r="D23" t="n">
-        <v>296.1133490654085</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1398,12 +1256,6 @@
       <c r="B24" t="n">
         <v>116</v>
       </c>
-      <c r="C24" t="n">
-        <v>-63.78388459256309</v>
-      </c>
-      <c r="D24" t="n">
-        <v>296.2153470113641</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1412,12 +1264,6 @@
       <c r="B25" t="n">
         <v>118</v>
       </c>
-      <c r="C25" t="n">
-        <v>-43.31493122723438</v>
-      </c>
-      <c r="D25" t="n">
-        <v>307.7192532528065</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1426,12 +1272,6 @@
       <c r="B26" t="n">
         <v>122</v>
       </c>
-      <c r="C26" t="n">
-        <v>-50.1457913452662</v>
-      </c>
-      <c r="D26" t="n">
-        <v>302.7507561763107</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1440,12 +1280,6 @@
       <c r="B27" t="n">
         <v>136</v>
       </c>
-      <c r="C27" t="n">
-        <v>-64.49402312040519</v>
-      </c>
-      <c r="D27" t="n">
-        <v>319.8817105694295</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1454,12 +1288,6 @@
       <c r="B28" t="n">
         <v>141</v>
       </c>
-      <c r="C28" t="n">
-        <v>-55.6790782136946</v>
-      </c>
-      <c r="D28" t="n">
-        <v>324.5702847539085</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1468,12 +1296,6 @@
       <c r="B29" t="n">
         <v>145</v>
       </c>
-      <c r="C29" t="n">
-        <v>-36.69252894755095</v>
-      </c>
-      <c r="D29" t="n">
-        <v>337.8261652636446</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1482,12 +1304,6 @@
       <c r="B30" t="n">
         <v>155</v>
       </c>
-      <c r="C30" t="n">
-        <v>-17.46204079211316</v>
-      </c>
-      <c r="D30" t="n">
-        <v>332.8422782904261</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1496,12 +1312,6 @@
       <c r="B31" t="n">
         <v>157</v>
       </c>
-      <c r="C31" t="n">
-        <v>-29.37424080809727</v>
-      </c>
-      <c r="D31" t="n">
-        <v>340.3670621113837</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1510,12 +1320,6 @@
       <c r="B32" t="n">
         <v>159</v>
       </c>
-      <c r="C32" t="n">
-        <v>-27.88555923886067</v>
-      </c>
-      <c r="D32" t="n">
-        <v>358.5358125451778</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1524,12 +1328,6 @@
       <c r="B33" t="n">
         <v>168</v>
       </c>
-      <c r="C33" t="n">
-        <v>-20.21478101579965</v>
-      </c>
-      <c r="D33" t="n">
-        <v>352.2751035483438</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1538,12 +1336,6 @@
       <c r="B34" t="n">
         <v>171</v>
       </c>
-      <c r="C34" t="n">
-        <v>-7.269797726477624</v>
-      </c>
-      <c r="D34" t="n">
-        <v>359.7910509719134</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1552,12 +1344,6 @@
       <c r="B35" t="n">
         <v>182</v>
       </c>
-      <c r="C35" t="n">
-        <v>-11.69845039633446</v>
-      </c>
-      <c r="D35" t="n">
-        <v>351.1005866498431</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1566,12 +1352,6 @@
       <c r="B36" t="n">
         <v>189</v>
       </c>
-      <c r="C36" t="n">
-        <v>4.516801204204577</v>
-      </c>
-      <c r="D36" t="n">
-        <v>373.1531852335118</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1580,12 +1360,6 @@
       <c r="B37" t="n">
         <v>191</v>
       </c>
-      <c r="C37" t="n">
-        <v>10.4021572689153</v>
-      </c>
-      <c r="D37" t="n">
-        <v>394.0609497390744</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1594,12 +1368,6 @@
       <c r="B38" t="n">
         <v>196</v>
       </c>
-      <c r="C38" t="n">
-        <v>8.895091648602632</v>
-      </c>
-      <c r="D38" t="n">
-        <v>391.6362146242161</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1608,12 +1376,6 @@
       <c r="B39" t="n">
         <v>198</v>
       </c>
-      <c r="C39" t="n">
-        <v>13.8668573788341</v>
-      </c>
-      <c r="D39" t="n">
-        <v>372.1774957150297</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1622,12 +1384,6 @@
       <c r="B40" t="n">
         <v>200</v>
       </c>
-      <c r="C40" t="n">
-        <v>21.75983861629605</v>
-      </c>
-      <c r="D40" t="n">
-        <v>381.870923583422</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1636,12 +1392,6 @@
       <c r="B41" t="n">
         <v>203</v>
       </c>
-      <c r="C41" t="n">
-        <v>17.23647147462314</v>
-      </c>
-      <c r="D41" t="n">
-        <v>391.9807246602838</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1650,12 +1400,6 @@
       <c r="B42" t="n">
         <v>205</v>
       </c>
-      <c r="C42" t="n">
-        <v>21.12199312126419</v>
-      </c>
-      <c r="D42" t="n">
-        <v>380.1202825251706</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1664,12 +1408,6 @@
       <c r="B43" t="n">
         <v>207</v>
       </c>
-      <c r="C43" t="n">
-        <v>37.11113904911878</v>
-      </c>
-      <c r="D43" t="n">
-        <v>399.1320433573617</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1678,12 +1416,6 @@
       <c r="B44" t="n">
         <v>209</v>
       </c>
-      <c r="C44" t="n">
-        <v>32.1826062010712</v>
-      </c>
-      <c r="D44" t="n">
-        <v>403.4802784587497</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1692,12 +1424,6 @@
       <c r="B45" t="n">
         <v>212</v>
       </c>
-      <c r="C45" t="n">
-        <v>27.51218060227043</v>
-      </c>
-      <c r="D45" t="n">
-        <v>407.0433640317528</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1706,12 +1432,6 @@
       <c r="B46" t="n">
         <v>214</v>
       </c>
-      <c r="C46" t="n">
-        <v>21.17189894597619</v>
-      </c>
-      <c r="D46" t="n">
-        <v>410.5244254475149</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1720,12 +1440,6 @@
       <c r="B47" t="n">
         <v>219</v>
       </c>
-      <c r="C47" t="n">
-        <v>35.08338831309972</v>
-      </c>
-      <c r="D47" t="n">
-        <v>390.9804223000712</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1734,12 +1448,6 @@
       <c r="B48" t="n">
         <v>221</v>
       </c>
-      <c r="C48" t="n">
-        <v>36.37290701904812</v>
-      </c>
-      <c r="D48" t="n">
-        <v>401.2186025766567</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1748,12 +1456,6 @@
       <c r="B49" t="n">
         <v>223</v>
       </c>
-      <c r="C49" t="n">
-        <v>25.16807166924611</v>
-      </c>
-      <c r="D49" t="n">
-        <v>408.4521207543486</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1762,12 +1464,6 @@
       <c r="B50" t="n">
         <v>225</v>
       </c>
-      <c r="C50" t="n">
-        <v>38.94229926762693</v>
-      </c>
-      <c r="D50" t="n">
-        <v>409.7753329397426</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1776,12 +1472,6 @@
       <c r="B51" t="n">
         <v>228</v>
       </c>
-      <c r="C51" t="n">
-        <v>37.839983753106</v>
-      </c>
-      <c r="D51" t="n">
-        <v>408.6371156899102</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1790,12 +1480,6 @@
       <c r="B52" t="n">
         <v>235</v>
       </c>
-      <c r="C52" t="n">
-        <v>51.81784183557672</v>
-      </c>
-      <c r="D52" t="n">
-        <v>419.46053010466</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1804,12 +1488,6 @@
       <c r="B53" t="n">
         <v>237</v>
       </c>
-      <c r="C53" t="n">
-        <v>57.06987161347275</v>
-      </c>
-      <c r="D53" t="n">
-        <v>421.6788362494598</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1818,12 +1496,6 @@
       <c r="B54" t="n">
         <v>239</v>
       </c>
-      <c r="C54" t="n">
-        <v>68.79096578692035</v>
-      </c>
-      <c r="D54" t="n">
-        <v>419.3427462058393</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1832,12 +1504,6 @@
       <c r="B55" t="n">
         <v>241</v>
       </c>
-      <c r="C55" t="n">
-        <v>70.98936151175647</v>
-      </c>
-      <c r="D55" t="n">
-        <v>421.617934822798</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1846,12 +1512,6 @@
       <c r="B56" t="n">
         <v>244</v>
       </c>
-      <c r="C56" t="n">
-        <v>55.36654740858081</v>
-      </c>
-      <c r="D56" t="n">
-        <v>435.3051513278211</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1860,12 +1520,6 @@
       <c r="B57" t="n">
         <v>246</v>
       </c>
-      <c r="C57" t="n">
-        <v>54.05602942797178</v>
-      </c>
-      <c r="D57" t="n">
-        <v>423.5533209189615</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1874,12 +1528,6 @@
       <c r="B58" t="n">
         <v>248</v>
       </c>
-      <c r="C58" t="n">
-        <v>64.32345041327392</v>
-      </c>
-      <c r="D58" t="n">
-        <v>430.777103711612</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1888,12 +1536,6 @@
       <c r="B59" t="n">
         <v>251</v>
       </c>
-      <c r="C59" t="n">
-        <v>71.51871812745064</v>
-      </c>
-      <c r="D59" t="n">
-        <v>434.3208700643095</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1901,12 +1543,6 @@
       </c>
       <c r="B60" t="n">
         <v>253</v>
-      </c>
-      <c r="C60" t="n">
-        <v>83.18768443234821</v>
-      </c>
-      <c r="D60" t="n">
-        <v>444.3784683710468</v>
       </c>
     </row>
   </sheetData>
